--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16464" windowHeight="7116" tabRatio="864"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16464" windowHeight="7116" tabRatio="864" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="651">
   <si>
     <t>单元项目开发</t>
   </si>
@@ -591,24 +591,9 @@
     <t>请求数据</t>
   </si>
   <si>
-    <t>任务执行开始时间</t>
-  </si>
-  <si>
-    <t>最近一次执行时间</t>
-  </si>
-  <si>
-    <t>预计剩余采集数量</t>
-  </si>
-  <si>
-    <t>完成数量</t>
-  </si>
-  <si>
     <t>采集通用标识</t>
   </si>
   <si>
-    <t>采集出错数量</t>
-  </si>
-  <si>
     <t>执行状态</t>
   </si>
   <si>
@@ -636,18 +621,6 @@
     <t>request_data</t>
   </si>
   <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>last_excute_time</t>
-  </si>
-  <si>
-    <t>surplus_num</t>
-  </si>
-  <si>
-    <t>success_num</t>
-  </si>
-  <si>
     <t>task_flag</t>
   </si>
   <si>
@@ -666,9 +639,6 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>varchar(500)</t>
   </si>
   <si>
@@ -750,19 +720,10 @@
     <t>页面分类规则</t>
   </si>
   <si>
-    <t>种子id</t>
-  </si>
-  <si>
     <t>规则类别</t>
   </si>
   <si>
-    <t>上一层组id</t>
-  </si>
-  <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>parent_uuid</t>
   </si>
   <si>
     <t xml:space="preserve">list ，还是detial 页面 </t>
@@ -1157,9 +1118,6 @@
   </si>
   <si>
     <t>字段类型</t>
-  </si>
-  <si>
-    <t>列表展示</t>
   </si>
   <si>
     <t>对齐方式</t>
@@ -1266,9 +1224,6 @@
     </r>
   </si>
   <si>
-    <t>page_list</t>
-  </si>
-  <si>
     <t>colsAlign</t>
   </si>
   <si>
@@ -2540,6 +2495,34 @@
   </si>
   <si>
     <t>第五级，以资料品种属性划分著作(作品、理论著作、应用著述)、学术(注释、评析、争鸣、研讨、研究、考证、翻译)、教学(学校教材、社会培训教材、自修教材、参考资料、讲义、学习资料，普及读物、实验实习、试题习题、教学大纲)、帮助(词典、百科、类书、政书、年鉴、手册、书目、索引、文摘、表谱、图录、标准)。</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>statue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询排除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsSort</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3640,7 +3623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
@@ -5458,9 +5441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A60" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -5486,7 +5471,7 @@
     <col min="23" max="23" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5494,7 +5479,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1">
+    <row r="2" spans="1:18" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5505,7 +5490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1">
+    <row r="3" spans="1:18" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5513,15 +5498,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1">
+    <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1">
+    <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1">
+    <row r="6" spans="1:18" s="14" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
@@ -5535,7 +5520,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:18">
       <c r="B7" s="9" t="s">
         <v>138</v>
       </c>
@@ -5563,115 +5548,85 @@
       <c r="J7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>148</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>150</v>
+        <v>5</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:18">
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>164</v>
+      <c r="M8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:18">
       <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
@@ -5685,134 +5640,114 @@
         <v>49</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>171</v>
+        <v>38</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1">
+    <row r="11" spans="1:18" s="1" customFormat="1">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:23" s="14" customFormat="1">
+    <row r="12" spans="1:18" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A12" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>5</v>
@@ -5833,18 +5768,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>26</v>
@@ -5865,7 +5800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
@@ -5873,10 +5808,10 @@
         <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>66</v>
@@ -5897,7 +5832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
@@ -5913,36 +5848,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1">
+    <row r="17" spans="1:17" s="1" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:17" s="14" customFormat="1">
+    <row r="18" spans="1:17" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A18" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B19" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>5</v>
@@ -5963,18 +5898,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>26</v>
@@ -5995,7 +5930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
@@ -6006,7 +5941,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>66</v>
@@ -6027,7 +5962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
@@ -6043,23 +5978,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="11" customFormat="1">
+    <row r="23" spans="1:17" s="11" customFormat="1" collapsed="1">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:17" s="23" customFormat="1"/>
     <row r="25" spans="1:17" s="12" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6067,33 +6002,36 @@
         <v>138</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>199</v>
+        <v>645</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="L26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6102,33 +6040,36 @@
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="L27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6140,30 +6081,33 @@
         <v>33</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>33</v>
+      <c r="F28" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="G28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="L28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6173,10 +6117,10 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -6184,54 +6128,55 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="3" customFormat="1">
+    <row r="31" spans="1:17" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A31" s="5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B32" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>5</v>
@@ -6252,36 +6197,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>26</v>
@@ -6302,7 +6247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
@@ -6352,13 +6297,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="7"/>
@@ -6376,42 +6321,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1"/>
-    <row r="37" spans="1:17" s="23" customFormat="1">
+    <row r="36" spans="1:17" s="1" customFormat="1" hidden="1" outlineLevel="1"/>
+    <row r="37" spans="1:17" s="23" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A37" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B38" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>5</v>
@@ -6432,27 +6377,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>26</v>
@@ -6473,7 +6418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B40" s="7" t="s">
         <v>33</v>
       </c>
@@ -6514,7 +6459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
@@ -6533,47 +6478,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1"/>
+    <row r="42" spans="1:17" s="1" customFormat="1" collapsed="1"/>
     <row r="43" spans="1:17" s="14" customFormat="1">
       <c r="A43" s="14" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="3" customFormat="1">
       <c r="A44" s="28" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="B45" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>5</v>
@@ -6599,22 +6544,22 @@
         <v>24</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>26</v>
@@ -6643,13 +6588,13 @@
         <v>34</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>38</v>
@@ -6698,16 +6643,16 @@
     <row r="49" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="50" spans="1:15" s="13" customFormat="1">
       <c r="A50" s="18" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -6715,25 +6660,25 @@
         <v>14</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>5</v>
@@ -6759,25 +6704,25 @@
         <v>24</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>26</v>
@@ -6809,10 +6754,10 @@
         <v>52</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>52</v>
@@ -6821,7 +6766,7 @@
         <v>52</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>66</v>
@@ -6865,16 +6810,16 @@
     <row r="55" spans="1:15" s="1" customFormat="1"/>
     <row r="56" spans="1:15" s="13" customFormat="1">
       <c r="A56" s="18" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6882,16 +6827,16 @@
         <v>14</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>5</v>
@@ -6917,16 +6862,16 @@
         <v>24</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>26</v>
@@ -7002,42 +6947,42 @@
     <row r="61" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="62" spans="1:15" s="3" customFormat="1">
       <c r="A62" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="B63" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>5</v>
@@ -7063,25 +7008,25 @@
         <v>24</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="I64" s="30" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>26</v>
@@ -7125,7 +7070,7 @@
         <v>34</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>66</v>
@@ -7151,7 +7096,7 @@
         <v>39</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="7"/>
@@ -7171,66 +7116,66 @@
     <row r="67" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="68" spans="1:23" s="3" customFormat="1">
       <c r="A68" s="28" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="B69" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>315</v>
+        <v>649</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="R69" s="8" t="s">
         <v>5</v>
@@ -7256,49 +7201,49 @@
         <v>24</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>329</v>
+        <v>650</v>
       </c>
       <c r="P70" s="30" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>26</v>
@@ -7333,16 +7278,16 @@
         <v>34</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>38</v>
+      <c r="I71" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>33</v>
@@ -7366,7 +7311,7 @@
         <v>33</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="R71" s="8" t="s">
         <v>66</v>
@@ -7392,7 +7337,7 @@
         <v>39</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -7401,7 +7346,7 @@
       </c>
       <c r="G72" s="32"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -7422,39 +7367,39 @@
     <row r="73" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="74" spans="1:23" s="3" customFormat="1">
       <c r="A74" s="28" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="B75" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>5</v>
@@ -7474,22 +7419,22 @@
         <v>24</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>26</v>
@@ -7512,10 +7457,10 @@
         <v>34</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>36</v>
@@ -7559,33 +7504,33 @@
     <row r="79" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="80" spans="1:23" s="3" customFormat="1">
       <c r="A80" s="28" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="B81" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>17</v>
@@ -7602,16 +7547,16 @@
         <v>24</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>28</v>
@@ -7634,10 +7579,10 @@
         <v>52</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>37</v>
@@ -7654,7 +7599,7 @@
         <v>39</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -7667,25 +7612,25 @@
     </row>
     <row r="86" spans="1:21" s="3" customFormat="1">
       <c r="A86" s="28" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:21">
       <c r="B87" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>5</v>
@@ -7714,13 +7659,13 @@
         <v>24</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>26</v>
@@ -7761,7 +7706,7 @@
         <v>66</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>37</v>
@@ -7798,55 +7743,55 @@
     </row>
     <row r="92" spans="1:21" s="3" customFormat="1">
       <c r="A92" s="28" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:21">
       <c r="B93" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D93" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="N93" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="O93" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="M93" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="N93" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="O93" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="P93" s="8" t="s">
         <v>5</v>
@@ -7872,43 +7817,43 @@
         <v>24</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="L94" s="30" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="P94" s="8" t="s">
         <v>26</v>
@@ -7940,7 +7885,7 @@
         <v>66</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>66</v>
@@ -7952,16 +7897,16 @@
         <v>66</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M95" s="7" t="s">
         <v>52</v>
@@ -8021,34 +7966,34 @@
     </row>
     <row r="98" spans="1:14" s="3" customFormat="1">
       <c r="A98" s="28" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:14">
       <c r="B99" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>5</v>
@@ -8074,22 +8019,22 @@
         <v>24</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>26</v>
@@ -8130,7 +8075,7 @@
         <v>66</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>66</v>
@@ -8210,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -8218,10 +8163,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
@@ -8229,7 +8174,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -8237,7 +8182,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
@@ -8246,27 +8191,27 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="18" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="19" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8277,7 +8222,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8296,7 +8241,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -8304,21 +8249,21 @@
     </row>
     <row r="14" spans="1:12" s="17" customFormat="1">
       <c r="A14" s="17" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="18" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8326,34 +8271,34 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -8361,34 +8306,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -8402,13 +8347,13 @@
         <v>52</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>52</v>
@@ -8417,7 +8362,7 @@
         <v>52</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>122</v>
@@ -8446,45 +8391,45 @@
     <row r="20" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="21" spans="1:15" s="3" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="B22" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -8492,28 +8437,28 @@
         <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -8536,10 +8481,10 @@
         <v>122</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>36</v>
@@ -8550,7 +8495,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -8568,60 +8513,60 @@
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="B28" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -8629,43 +8574,43 @@
         <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -8682,7 +8627,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>38</v>
@@ -8706,7 +8651,7 @@
         <v>38</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>122</v>
@@ -8717,7 +8662,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -8738,21 +8683,21 @@
     </row>
     <row r="34" spans="1:18" s="17" customFormat="1">
       <c r="A34" s="17" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="18" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -8760,52 +8705,52 @@
         <v>14</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="R36" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -8813,52 +8758,52 @@
         <v>24</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -8875,19 +8820,19 @@
         <v>38</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>38</v>
@@ -8905,13 +8850,13 @@
         <v>38</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8937,45 +8882,45 @@
     </row>
     <row r="41" spans="1:18" s="3" customFormat="1">
       <c r="A41" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="B42" s="8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -8983,28 +8928,28 @@
         <v>24</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -9030,7 +8975,7 @@
         <v>38</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>122</v>
@@ -9041,7 +8986,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -9055,21 +9000,21 @@
     </row>
     <row r="48" spans="1:18" s="17" customFormat="1">
       <c r="A48" s="17" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="18" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -9077,22 +9022,22 @@
         <v>14</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -9100,22 +9045,22 @@
         <v>24</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -9132,7 +9077,7 @@
         <v>38</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>50</v>
@@ -9163,7 +9108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
@@ -9216,7 +9161,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1"/>
@@ -9224,7 +9169,7 @@
     <row r="6" spans="1:25" s="11" customFormat="1"/>
     <row r="7" spans="1:25" s="12" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>109</v>
@@ -9238,13 +9183,13 @@
         <v>112</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>113</v>
@@ -9253,37 +9198,37 @@
         <v>114</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>115</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>5</v>
@@ -9312,52 +9257,52 @@
         <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>120</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="T9" s="8" t="s">
         <v>26</v>
@@ -9386,13 +9331,13 @@
         <v>66</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>38</v>
@@ -9407,7 +9352,7 @@
         <v>66</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>66</v>
@@ -9419,16 +9364,16 @@
         <v>66</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>66</v>
@@ -9484,10 +9429,10 @@
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -9498,19 +9443,19 @@
         <v>129</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>5</v>
@@ -9536,22 +9481,22 @@
         <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>544</v>
-      </c>
       <c r="H15" s="8" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>26</v>
@@ -9583,16 +9528,16 @@
         <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>66</v>
@@ -9634,10 +9579,10 @@
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -9648,13 +9593,13 @@
         <v>129</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>5</v>
@@ -9680,16 +9625,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>26</v>
@@ -9721,10 +9666,10 @@
         <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>66</v>
@@ -9752,7 +9697,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -9766,10 +9711,10 @@
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -9780,22 +9725,22 @@
         <v>129</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>5</v>
@@ -9821,25 +9766,25 @@
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>26</v>
@@ -9868,7 +9813,7 @@
         <v>33</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>50</v>
@@ -9877,13 +9822,13 @@
         <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>66</v>
@@ -9926,10 +9871,10 @@
     </row>
     <row r="31" spans="1:15" s="3" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -9940,22 +9885,22 @@
         <v>129</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>573</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>5</v>
@@ -9981,25 +9926,25 @@
         <v>24</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>26</v>
@@ -10028,13 +9973,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>50</v>
@@ -10043,7 +9988,7 @@
         <v>50</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>66</v>
@@ -10086,10 +10031,10 @@
     </row>
     <row r="38" spans="1:15" s="3" customFormat="1">
       <c r="A38" s="5" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -10100,10 +10045,10 @@
         <v>129</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>5</v>
@@ -10129,13 +10074,13 @@
         <v>24</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>26</v>
@@ -10164,10 +10109,10 @@
         <v>33</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>66</v>
@@ -10194,7 +10139,7 @@
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -10208,10 +10153,10 @@
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1">
       <c r="A45" s="5" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -10219,16 +10164,16 @@
         <v>14</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>5</v>
@@ -10257,13 +10202,13 @@
         <v>62</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>26</v>
@@ -10292,7 +10237,7 @@
         <v>36</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>36</v>
@@ -10338,7 +10283,7 @@
     </row>
     <row r="51" spans="1:13" s="14" customFormat="1">
       <c r="A51" s="15" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B51" s="15"/>
     </row>
@@ -10350,10 +10295,10 @@
         <v>129</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>5</v>
@@ -10379,13 +10324,13 @@
         <v>24</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>26</v>
@@ -10456,7 +10401,7 @@
     </row>
     <row r="58" spans="1:13" s="13" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A58" s="5" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B58" s="6"/>
     </row>
@@ -10541,7 +10486,7 @@
         <v>51</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:13" hidden="1" outlineLevel="1">
@@ -10565,7 +10510,7 @@
     <row r="63" spans="1:13" hidden="1" outlineLevel="1"/>
     <row r="64" spans="1:13" hidden="1" outlineLevel="1">
       <c r="A64" s="15" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B64" s="16"/>
     </row>
@@ -10650,7 +10595,7 @@
         <v>51</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:13" hidden="1" outlineLevel="1">
@@ -10675,7 +10620,7 @@
     <row r="70" spans="1:13" hidden="1" outlineLevel="1" collapsed="1"/>
     <row r="71" spans="1:13" s="13" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A71" s="5" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B71" s="6"/>
     </row>
@@ -10722,7 +10667,7 @@
     <row r="76" spans="1:13" hidden="1" outlineLevel="1"/>
     <row r="77" spans="1:13" hidden="1" outlineLevel="1">
       <c r="A77" s="15" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B77" s="16"/>
     </row>
@@ -10769,7 +10714,7 @@
     <row r="82" spans="1:7" hidden="1" outlineLevel="1"/>
     <row r="83" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A83" s="15" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B83" s="16"/>
     </row>
@@ -10816,7 +10761,7 @@
     <row r="88" spans="1:7" hidden="1" outlineLevel="1"/>
     <row r="89" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A89" s="15" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B89" s="16"/>
     </row>
@@ -10905,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1">
@@ -10913,7 +10858,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -10924,7 +10869,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
@@ -10932,7 +10877,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
@@ -10944,10 +10889,10 @@
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
@@ -10955,49 +10900,49 @@
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>5</v>
@@ -11023,49 +10968,49 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>26</v>
@@ -11091,25 +11036,25 @@
         <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>66</v>
@@ -11130,10 +11075,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>66</v>
@@ -11187,10 +11132,10 @@
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11201,31 +11146,31 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>5</v>
@@ -11251,34 +11196,34 @@
         <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>26</v>
@@ -11307,19 +11252,19 @@
         <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>33</v>
@@ -11328,10 +11273,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>66</v>
@@ -11382,59 +11327,59 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="5" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.6">
       <c r="B24" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="C24" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="C25" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="C26" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="D26" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="D27" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="D28" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -11472,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -11480,7 +11425,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -11491,7 +11436,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
